--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C35FD7-E7C8-4F9F-8592-ACF0E922FD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B484162-0A0D-4E8C-9148-4E3BC3F78016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -5748,7 +5748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A993CBE-1E67-4355-897A-5B08C15C34AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729CFFCD-4C69-4893-B7FD-8192B0A29C17}">
   <dimension ref="B3:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
